--- a/forecast_summary_B09S6NQPM6.xlsx
+++ b/forecast_summary_B09S6NQPM6.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>-0.131706752659633</v>
       </c>
       <c r="D2" t="n">
-        <v>10.87149327948456</v>
+        <v>11.86931314781162</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
@@ -511,6 +516,9 @@
         <is>
           <t>H610M S2H DDR4</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>-0.2010291415737273</v>
       </c>
       <c r="D3" t="n">
-        <v>11.19072819488456</v>
+        <v>11.47936665514443</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -547,6 +555,9 @@
         <is>
           <t>H610M S2H DDR4</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>-0.1816093653467659</v>
       </c>
       <c r="D4" t="n">
-        <v>11.20505189265858</v>
+        <v>11.59552685804465</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -583,6 +594,9 @@
         <is>
           <t>H610M S2H DDR4</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>-0.1054569685012409</v>
       </c>
       <c r="D5" t="n">
-        <v>10.71449175245585</v>
+        <v>11.39733461784893</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
@@ -619,6 +633,9 @@
         <is>
           <t>H610M S2H DDR4</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>-0.03725765936052625</v>
       </c>
       <c r="D6" t="n">
-        <v>11.44844618454642</v>
+        <v>11.57901213820582</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -655,6 +672,9 @@
         <is>
           <t>H610M S2H DDR4</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>-0.007946217615265211</v>
       </c>
       <c r="D7" t="n">
-        <v>11.13047411545802</v>
+        <v>11.19879732450018</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -691,6 +711,9 @@
         <is>
           <t>H610M S2H DDR4</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>-0.002784201321683207</v>
       </c>
       <c r="D8" t="n">
-        <v>11.95946590217982</v>
+        <v>11.16883409755282</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -727,6 +750,9 @@
         <is>
           <t>H610M S2H DDR4</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>-0.0001808405806296931</v>
       </c>
       <c r="D9" t="n">
-        <v>11.64109524668878</v>
+        <v>11.1062253534293</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -763,6 +789,9 @@
         <is>
           <t>H610M S2H DDR4</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>0.001119186685522776</v>
       </c>
       <c r="D10" t="n">
-        <v>11.95506249625672</v>
+        <v>11.79672499599751</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
@@ -799,6 +828,9 @@
         <is>
           <t>H610M S2H DDR4</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-0.003305365344290508</v>
       </c>
       <c r="D11" t="n">
-        <v>11.68010293264039</v>
+        <v>11.98930063815536</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
@@ -835,6 +867,9 @@
         <is>
           <t>H610M S2H DDR4</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-0.003523409174992472</v>
       </c>
       <c r="D12" t="n">
-        <v>10.53836511879255</v>
+        <v>11.72202514090855</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
@@ -871,6 +906,9 @@
         <is>
           <t>H610M S2H DDR4</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>0.01042205279252711</v>
       </c>
       <c r="D13" t="n">
-        <v>11.28046553177075</v>
+        <v>10.85799564061171</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -907,6 +945,9 @@
         <is>
           <t>H610M S2H DDR4</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>0.02087259820273422</v>
       </c>
       <c r="D14" t="n">
-        <v>11.84288625470449</v>
+        <v>11.59659567123935</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
@@ -943,6 +984,9 @@
         <is>
           <t>H610M S2H DDR4</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>-0.007650040846746708</v>
       </c>
       <c r="D15" t="n">
-        <v>11.00057135074949</v>
+        <v>11.64110290945441</v>
       </c>
       <c r="E15" t="n">
         <v>3</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>H610M S2H DDR4</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>-0.08262912695305105</v>
       </c>
       <c r="D16" t="n">
-        <v>11.98890608796433</v>
+        <v>12.81346754258341</v>
       </c>
       <c r="E16" t="n">
         <v>3</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>H610M S2H DDR4</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1022,13 +1072,13 @@
         <v>45725</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
         <v>-0.1643916655631756</v>
       </c>
       <c r="D17" t="n">
-        <v>12.5795350091282</v>
+        <v>14.91562489354879</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>H610M S2H DDR4</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>-0.2101006965204036</v>
       </c>
       <c r="D18" t="n">
-        <v>15.90909307144442</v>
+        <v>16.16093135772941</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>H610M S2H DDR4</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>-0.228264774684892</v>
       </c>
       <c r="D19" t="n">
-        <v>17.09556053723226</v>
+        <v>16.63046380288205</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>H610M S2H DDR4</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>-0.2642150224401827</v>
       </c>
       <c r="D20" t="n">
-        <v>19.60421445363436</v>
+        <v>20.63570006835365</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>H610M S2H DDR4</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>-0.3250465725095507</v>
       </c>
       <c r="D21" t="n">
-        <v>21.8303651843827</v>
+        <v>23.14950707902366</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>H610M S2H DDR4</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
     </row>
